--- a/Sheets/one_may15.xlsx
+++ b/Sheets/one_may15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajki\Documents\Python\Excel\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA7556A-E316-4408-B83C-44237C1BE055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D285D97F-3AEC-4A9C-9E42-8543C4BF5FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6FB22F5-02A3-4471-9C8E-00D1FBF713DB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="223">
   <si>
     <t>BAD DATA</t>
   </si>
@@ -41,30 +41,6 @@
     <t>sGOOD DATA (ONE)</t>
   </si>
   <si>
-    <t>GOOD DATA (ONE)1</t>
-  </si>
-  <si>
-    <t>GOOD DATA (ONE)2</t>
-  </si>
-  <si>
-    <t>GOOD DATA (ONE)3</t>
-  </si>
-  <si>
-    <t>GOOD DATA (ONE)4</t>
-  </si>
-  <si>
-    <t>GOOD DATA (ONE)5</t>
-  </si>
-  <si>
-    <t>GOOD DATA (ONE)6</t>
-  </si>
-  <si>
-    <t>GOOD DATA (ONE)7</t>
-  </si>
-  <si>
-    <t>GOOD DATA (ONE)8</t>
-  </si>
-  <si>
     <t>GOOD DATA (ONE)9</t>
   </si>
   <si>
@@ -699,6 +675,33 @@
   </si>
   <si>
     <t>GOOD DATA (ONE)220</t>
+  </si>
+  <si>
+    <t>GOOD, DATA (ONE)1</t>
+  </si>
+  <si>
+    <t>BAD, DATA</t>
+  </si>
+  <si>
+    <t>GOOD, DATA (ONE)2</t>
+  </si>
+  <si>
+    <t>GOOD, DATA (ONE)3</t>
+  </si>
+  <si>
+    <t>GOOD, DATA (ONE)4</t>
+  </si>
+  <si>
+    <t>GOOD, DATA (ONE)5</t>
+  </si>
+  <si>
+    <t>GOOD, DATA (ONE)6</t>
+  </si>
+  <si>
+    <t>GOOD, DATA (ONE)7</t>
+  </si>
+  <si>
+    <t>GOOD,DATA (ONE)8</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
   <dimension ref="A1:L228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="I9" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
@@ -1432,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -1508,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -1546,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -1660,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -1698,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>0</v>
@@ -1736,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>0</v>
@@ -1774,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
         <v>0</v>
@@ -1812,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
         <v>0</v>
@@ -1850,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
         <v>0</v>
@@ -1888,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I22" t="s">
         <v>0</v>
@@ -1926,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -1964,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I24" t="s">
         <v>0</v>
@@ -2002,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
         <v>0</v>
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
         <v>0</v>
@@ -2154,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
         <v>0</v>
@@ -2192,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -2230,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
         <v>0</v>
@@ -2268,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
         <v>0</v>
@@ -2306,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
@@ -2344,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
         <v>0</v>
@@ -2382,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -2420,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
         <v>0</v>
@@ -2458,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>0</v>
@@ -2496,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
         <v>0</v>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
         <v>0</v>
@@ -2572,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
         <v>0</v>
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
         <v>0</v>
@@ -2648,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
         <v>0</v>
@@ -2686,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I43" t="s">
         <v>0</v>
@@ -2724,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
         <v>0</v>
@@ -2762,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I45" t="s">
         <v>0</v>
@@ -2800,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
         <v>0</v>
@@ -2838,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I47" t="s">
         <v>0</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s">
         <v>0</v>
@@ -2914,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
         <v>0</v>
@@ -2952,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I50" t="s">
         <v>0</v>
@@ -2990,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
         <v>0</v>
@@ -3028,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s">
         <v>0</v>
@@ -3066,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s">
         <v>0</v>
@@ -3104,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I54" t="s">
         <v>0</v>
@@ -3142,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s">
         <v>0</v>
@@ -3180,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I56" t="s">
         <v>0</v>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
         <v>0</v>
@@ -3256,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
         <v>0</v>
@@ -3294,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I59" t="s">
         <v>0</v>
@@ -3332,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
         <v>0</v>
@@ -3370,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
         <v>0</v>
@@ -3408,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
         <v>0</v>
@@ -3446,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
         <v>0</v>
@@ -3484,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s">
         <v>0</v>
@@ -3522,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
         <v>0</v>
@@ -3560,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s">
         <v>0</v>
@@ -3598,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s">
         <v>0</v>
@@ -3636,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I68" t="s">
         <v>0</v>
@@ -3674,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I69" t="s">
         <v>0</v>
@@ -3712,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I70" t="s">
         <v>0</v>
@@ -3750,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I71" t="s">
         <v>0</v>
@@ -3788,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I72" t="s">
         <v>0</v>
@@ -3826,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I73" t="s">
         <v>0</v>
@@ -3864,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I74" t="s">
         <v>0</v>
@@ -3902,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I75" t="s">
         <v>0</v>
@@ -3940,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I76" t="s">
         <v>0</v>
@@ -3978,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I77" t="s">
         <v>0</v>
@@ -4016,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I78" t="s">
         <v>0</v>
@@ -4054,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I79" t="s">
         <v>0</v>
@@ -4092,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I80" t="s">
         <v>0</v>
@@ -4130,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I81" t="s">
         <v>0</v>
@@ -4168,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I82" t="s">
         <v>0</v>
@@ -4206,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I83" t="s">
         <v>0</v>
@@ -4244,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I84" t="s">
         <v>0</v>
@@ -4282,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I85" t="s">
         <v>0</v>
@@ -4320,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I86" t="s">
         <v>0</v>
@@ -4358,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I87" t="s">
         <v>0</v>
@@ -4396,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I88" t="s">
         <v>0</v>
@@ -4434,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I89" t="s">
         <v>0</v>
@@ -4472,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I90" t="s">
         <v>0</v>
@@ -4510,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I91" t="s">
         <v>0</v>
@@ -4548,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I92" t="s">
         <v>0</v>
@@ -4586,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I93" t="s">
         <v>0</v>
@@ -4624,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s">
         <v>0</v>
@@ -4662,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I95" t="s">
         <v>0</v>
@@ -4700,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I96" t="s">
         <v>0</v>
@@ -4738,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s">
         <v>0</v>
@@ -4776,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I98" t="s">
         <v>0</v>
@@ -4814,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I99" t="s">
         <v>0</v>
@@ -4852,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I100" t="s">
         <v>0</v>
@@ -4890,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I101" t="s">
         <v>0</v>
@@ -4928,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I102" t="s">
         <v>0</v>
@@ -4966,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I103" t="s">
         <v>0</v>
@@ -5004,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s">
         <v>0</v>
@@ -5042,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I105" t="s">
         <v>0</v>
@@ -5080,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I106" t="s">
         <v>0</v>
@@ -5118,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I107" t="s">
         <v>0</v>
@@ -5156,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I108" t="s">
         <v>0</v>
@@ -5194,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I109" t="s">
         <v>0</v>
@@ -5232,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I110" t="s">
         <v>0</v>
@@ -5270,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I111" t="s">
         <v>0</v>
@@ -5308,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I112" t="s">
         <v>0</v>
@@ -5346,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I113" t="s">
         <v>0</v>
@@ -5384,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I114" t="s">
         <v>0</v>
@@ -5422,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I115" t="s">
         <v>0</v>
@@ -5460,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I116" t="s">
         <v>0</v>
@@ -5498,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I117" t="s">
         <v>0</v>
@@ -5536,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I118" t="s">
         <v>0</v>
@@ -5574,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I119" t="s">
         <v>0</v>
@@ -5612,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I120" t="s">
         <v>0</v>
@@ -5650,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I121" t="s">
         <v>0</v>
@@ -5688,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I122" t="s">
         <v>0</v>
@@ -5726,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I123" t="s">
         <v>0</v>
@@ -5764,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I124" t="s">
         <v>0</v>
@@ -5802,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I125" t="s">
         <v>0</v>
@@ -5840,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I126" t="s">
         <v>0</v>
@@ -5878,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I127" t="s">
         <v>0</v>
@@ -5916,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I128" t="s">
         <v>0</v>
@@ -5954,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I129" t="s">
         <v>0</v>
@@ -5992,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I130" t="s">
         <v>0</v>
@@ -6030,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I131" t="s">
         <v>0</v>
@@ -6068,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I132" t="s">
         <v>0</v>
@@ -6106,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I133" t="s">
         <v>0</v>
@@ -6144,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I134" t="s">
         <v>0</v>
@@ -6182,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I135" t="s">
         <v>0</v>
@@ -6220,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I136" t="s">
         <v>0</v>
@@ -6258,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I137" t="s">
         <v>0</v>
@@ -6296,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I138" t="s">
         <v>0</v>
@@ -6334,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
         <v>0</v>
@@ -6372,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I140" t="s">
         <v>0</v>
@@ -6410,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I141" t="s">
         <v>0</v>
@@ -6448,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I142" t="s">
         <v>0</v>
@@ -6486,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I143" t="s">
         <v>0</v>
@@ -6524,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I144" t="s">
         <v>0</v>
@@ -6562,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I145" t="s">
         <v>0</v>
@@ -6600,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I146" t="s">
         <v>0</v>
@@ -6638,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I147" t="s">
         <v>0</v>
@@ -6676,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I148" t="s">
         <v>0</v>
@@ -6714,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I149" t="s">
         <v>0</v>
@@ -6752,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I150" t="s">
         <v>0</v>
@@ -6790,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I151" t="s">
         <v>0</v>
@@ -6828,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I152" t="s">
         <v>0</v>
@@ -6866,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I153" t="s">
         <v>0</v>
@@ -6904,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I154" t="s">
         <v>0</v>
@@ -6942,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I155" t="s">
         <v>0</v>
@@ -6980,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I156" t="s">
         <v>0</v>
@@ -7018,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I157" t="s">
         <v>0</v>
@@ -7056,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I158" t="s">
         <v>0</v>
@@ -7094,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I159" t="s">
         <v>0</v>
@@ -7132,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I160" t="s">
         <v>0</v>
@@ -7170,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I161" t="s">
         <v>0</v>
@@ -7208,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I162" t="s">
         <v>0</v>
@@ -7246,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I163" t="s">
         <v>0</v>
@@ -7284,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I164" t="s">
         <v>0</v>
@@ -7322,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I165" t="s">
         <v>0</v>
@@ -7360,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I166" t="s">
         <v>0</v>
@@ -7398,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I167" t="s">
         <v>0</v>
@@ -7436,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I168" t="s">
         <v>0</v>
@@ -7474,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I169" t="s">
         <v>0</v>
@@ -7512,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I170" t="s">
         <v>0</v>
@@ -7550,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I171" t="s">
         <v>0</v>
@@ -7588,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I172" t="s">
         <v>0</v>
@@ -7626,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I173" t="s">
         <v>0</v>
@@ -7664,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I174" t="s">
         <v>0</v>
@@ -7702,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I175" t="s">
         <v>0</v>
@@ -7740,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I176" t="s">
         <v>0</v>
@@ -7778,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I177" t="s">
         <v>0</v>
@@ -7816,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I178" t="s">
         <v>0</v>
@@ -7854,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I179" t="s">
         <v>0</v>
@@ -7892,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I180" t="s">
         <v>0</v>
@@ -7930,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I181" t="s">
         <v>0</v>
@@ -7968,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I182" t="s">
         <v>0</v>
@@ -8006,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I183" t="s">
         <v>0</v>
@@ -8044,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I184" t="s">
         <v>0</v>
@@ -8082,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I185" t="s">
         <v>0</v>
@@ -8120,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I186" t="s">
         <v>0</v>
@@ -8158,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I187" t="s">
         <v>0</v>
@@ -8196,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I188" t="s">
         <v>0</v>
@@ -8234,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I189" t="s">
         <v>0</v>
@@ -8272,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I190" t="s">
         <v>0</v>
@@ -8310,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I191" t="s">
         <v>0</v>
@@ -8348,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I192" t="s">
         <v>0</v>
@@ -8386,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I193" t="s">
         <v>0</v>
@@ -8424,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I194" t="s">
         <v>0</v>
@@ -8462,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I195" t="s">
         <v>0</v>
@@ -8500,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I196" t="s">
         <v>0</v>
@@ -8538,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I197" t="s">
         <v>0</v>
@@ -8576,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I198" t="s">
         <v>0</v>
@@ -8614,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I199" t="s">
         <v>0</v>
@@ -8652,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I200" t="s">
         <v>0</v>
@@ -8690,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I201" t="s">
         <v>0</v>
@@ -8728,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I202" t="s">
         <v>0</v>
@@ -8766,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I203" t="s">
         <v>0</v>
@@ -8804,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I204" t="s">
         <v>0</v>
@@ -8842,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I205" t="s">
         <v>0</v>
@@ -8880,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I206" t="s">
         <v>0</v>
@@ -8918,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I207" t="s">
         <v>0</v>
@@ -8956,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I208" t="s">
         <v>0</v>
@@ -8994,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I209" t="s">
         <v>0</v>
@@ -9032,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I210" t="s">
         <v>0</v>
@@ -9070,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I211" t="s">
         <v>0</v>
@@ -9108,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I212" t="s">
         <v>0</v>
@@ -9146,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I213" t="s">
         <v>0</v>
@@ -9184,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I214" t="s">
         <v>0</v>
@@ -9222,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I215" t="s">
         <v>0</v>
@@ -9260,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I216" t="s">
         <v>0</v>
@@ -9298,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I217" t="s">
         <v>0</v>
@@ -9336,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I218" t="s">
         <v>0</v>
@@ -9374,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I219" t="s">
         <v>0</v>
@@ -9412,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I220" t="s">
         <v>0</v>
@@ -9450,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I221" t="s">
         <v>0</v>
@@ -9488,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I222" t="s">
         <v>0</v>
@@ -9526,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I223" t="s">
         <v>0</v>
@@ -9564,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I224" t="s">
         <v>0</v>
@@ -9602,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I225" t="s">
         <v>0</v>
@@ -9640,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I226" t="s">
         <v>0</v>
@@ -9678,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I227" t="s">
         <v>0</v>
@@ -9716,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I228" t="s">
         <v>0</v>
